--- a/shinyapp/data/Sterling_Youth_Development.xlsx
+++ b/shinyapp/data/Sterling_Youth_Development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayosborne/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayosborne/Downloads/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ADFF20-E9C7-A744-8879-B48E3F7E8CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D6B3D4-3CE5-AC48-B57E-1449BD978E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="540" windowWidth="14000" windowHeight="16420" xr2:uid="{0612B967-1994-9F41-A7BC-753ACB378C0D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0612B967-1994-9F41-A7BC-753ACB378C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">Latitude </t>
-  </si>
-  <si>
     <t>Love U More Foundation</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>INOVA Healthy Plate Club</t>
   </si>
   <si>
-    <t xml:space="preserve">Touching Hearts, Inc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASTA </t>
-  </si>
-  <si>
     <t>INMED</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>7:30AM - 6:00PM</t>
   </si>
   <si>
-    <t xml:space="preserve">Summer Day Camps  </t>
-  </si>
-  <si>
     <t>12196 Sunset Hills Road, Reston, VA 20190</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>8:00AM - 5:00PM</t>
   </si>
   <si>
-    <t xml:space="preserve">Girls on the Run </t>
-  </si>
-  <si>
     <t>10560 Main Street, Fairfax, VA 22030</t>
   </si>
   <si>
@@ -175,15 +160,9 @@
     <t>Sterling Library</t>
   </si>
   <si>
-    <t>22330 S. Sterling Blvd,  Suite A117 Sterling, VA 20164</t>
-  </si>
-  <si>
     <t>Offers events such as Family Storytime, ESOL: English Conversation Group, adult book club, teen clubs, art classes, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">9:30AM - 9:00PM </t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -191,6 +170,27 @@
   </si>
   <si>
     <t>4-H</t>
+  </si>
+  <si>
+    <t>Latitude </t>
+  </si>
+  <si>
+    <t>Summer Day Camps  </t>
+  </si>
+  <si>
+    <t>Girls on the Run </t>
+  </si>
+  <si>
+    <t>22330 S. Sterling Blvd,  Suite A117 Sterling, VA 20164</t>
+  </si>
+  <si>
+    <t>9:30AM - 9:00PM </t>
+  </si>
+  <si>
+    <t>Touching Hearts, Inc. </t>
+  </si>
+  <si>
+    <t>PASTA </t>
   </si>
 </sst>
 </file>
@@ -207,34 +207,34 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF993366"/>
+      <name val="Helvetica"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF351417"/>
-      <name val="Source Sans Pro"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -259,25 +259,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -595,17 +582,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08265865-87B3-A141-B92B-A5F35EC84153}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -616,21 +605,21 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>-77.400995199999997</v>
+        <v>-77.400994999999995</v>
       </c>
       <c r="E2">
         <v>39.023605799999999</v>
@@ -638,7 +627,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>-77.405699999999996</v>
@@ -649,10 +638,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>-77.565444200000002</v>
+        <v>-77.565443999999999</v>
       </c>
       <c r="E4">
         <v>39.110369400000003</v>
@@ -660,10 +649,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>-77.553654300000005</v>
+        <v>-77.553653999999995</v>
       </c>
       <c r="E5">
         <v>39.092599999999997</v>
@@ -671,21 +660,21 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>-77.375862121582003</v>
+        <v>-77.375861999999998</v>
       </c>
       <c r="E6">
-        <v>39.015830993652301</v>
+        <v>39.015830999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>-77.358749099999997</v>
+        <v>-77.358749000000003</v>
       </c>
       <c r="E7">
         <v>38.865062399999999</v>
@@ -693,7 +682,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>-77.223588000000007</v>
@@ -704,10 +693,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>-77.408413899999999</v>
+        <v>-77.408413999999993</v>
       </c>
       <c r="E9">
         <v>39.027190400000002</v>
@@ -715,266 +704,262 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-77.48681640625</v>
+        <v>-77.486816000000005</v>
       </c>
       <c r="E10">
-        <v>39.040317535400298</v>
+        <v>39.0403175</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-77.5552978515625</v>
+        <v>-77.555297999999993</v>
       </c>
       <c r="E11">
-        <v>39.081523895263601</v>
+        <v>39.081523900000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>39.01357651</v>
+        <v>-77.384056000000001</v>
       </c>
       <c r="E12" s="3">
-        <v>-77.384056090000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+        <v>39.013576499999999</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3">
+        <v>-77.368133999999998</v>
+      </c>
+      <c r="E13" s="3">
         <v>38.955991699999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-77.368133799999995</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
+        <v>-77.346993999999995</v>
+      </c>
+      <c r="E14" s="3">
         <v>38.9531086</v>
       </c>
-      <c r="E14" s="3">
-        <v>-77.346993900000001</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
+        <v>-77.552453999999997</v>
+      </c>
+      <c r="E15" s="3">
         <v>39.0611465</v>
       </c>
-      <c r="E15" s="3">
-        <v>-77.552453799999995</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>38.925209049999999</v>
+        <v>-77.520797999999999</v>
       </c>
       <c r="E16" s="3">
-        <v>-77.520797729999998</v>
-      </c>
-      <c r="F16" s="6" t="s">
+        <v>38.925209099999996</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3">
+        <v>-77.310794000000001</v>
+      </c>
+      <c r="E17" s="3">
         <v>38.847721700000001</v>
       </c>
-      <c r="E17" s="3">
-        <v>-77.310793799999999</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>39.065376280000002</v>
+        <v>-77.149856999999997</v>
       </c>
       <c r="E18" s="3">
-        <v>-77.149856569999997</v>
-      </c>
-      <c r="F18" s="6" t="s">
+        <v>39.065376299999997</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D19" s="3">
+        <v>-77.406756999999999</v>
+      </c>
+      <c r="E19" s="3">
         <v>38.9978257</v>
       </c>
-      <c r="E19" s="3">
-        <v>-77.406757200000001</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="F20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>48</v>
+      <c r="F19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/shinyapp/data/Sterling_Youth_Development.xlsx
+++ b/shinyapp/data/Sterling_Youth_Development.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayosborne/Downloads/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D6B3D4-3CE5-AC48-B57E-1449BD978E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D3AC26-A3F4-AA49-B8B2-A7BC17FEF609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0612B967-1994-9F41-A7BC-753ACB378C0D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -169,12 +169,6 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>4-H</t>
-  </si>
-  <si>
-    <t>Latitude </t>
-  </si>
-  <si>
     <t>Summer Day Camps  </t>
   </si>
   <si>
@@ -191,13 +185,112 @@
   </si>
   <si>
     <t>PASTA </t>
+  </si>
+  <si>
+    <t>Cooking classes and healthy eating</t>
+  </si>
+  <si>
+    <t>LCPS high school students mentoring and teaching elementary school students</t>
+  </si>
+  <si>
+    <t>We are a 501(c)(3) Non-Profit Organization that offers the game of soccer to youth in Loudoun County, Virginia.</t>
+  </si>
+  <si>
+    <t>Founded in 1976 by members of the Loudoun County Soccer Club who wanted to provide a soccer program focused on the needs of the Sterling community. The Club philosphy has been to provide a safe and healthy soccer environment for the youth of Sterling that provides opportunities to play at a variety  of competitive levels</t>
+  </si>
+  <si>
+    <t>The Children’s Science Center is a 501(c)3 non-profit organization and interactive museum where children, families, and school groups can explore science, technology, engineering and math (STEM) concepts through fun, engaging hands-on exhibits, activities, and programs. We serve over 70,000 visitors a year at the Children’s Science Center Lab at Fair Oaks Mall and through our community programs delivered to schools, libraries and STEM festivals across Northern Virginia.</t>
+  </si>
+  <si>
+    <t>Touching Heart was founded by Helen Yi and her daughter, Taylor. They have worked on a variety of charity projects, and they both feel great joy when helping people in need.</t>
+  </si>
+  <si>
+    <t>INMED Partnerships for Children is a nonprofit international humanitarian development organization whose mission is to build pathways for vulnerable children, families and communities to achieve well-being and self-reliance. Our ultimate goal is to end poverty. Through multisector partnerships and in-country affiliates, INMED develops sustainable systems that build pathways for vulnerable children, families and communities to achieve well-being and self-reliance—breaking complex cycles of poverty for current and future generations. INMED’s programs in adaptive agriculture and aquaponics, nutrition and healthy lifestyles, and economic development have transformed the lives of millions of children and their families since 1986.</t>
+  </si>
+  <si>
+    <t>Girls Who Code is an organization that values diversity, equity, and inclusion as essential to our mission. Girls Who Code focuses their work not only on gender diversity but also on young women who are historically underrepresented in computer science fields</t>
+  </si>
+  <si>
+    <t>Meeting in small teams or connecting virtually, trained volunteer coaches inspire girls to build confidence and other important life skills through dynamic, interactive lessons and physical activity.</t>
+  </si>
+  <si>
+    <t>We are a a 501 (c) (3) organization with a team of devoted professionals with a deep commitment to giving back</t>
+  </si>
+  <si>
+    <t>10:00AM - 8:30PM</t>
+  </si>
+  <si>
+    <t>Costco Wholesale’s primary charitable efforts specifically focus on programs supporting children, education, and health and human services in the communities where we do business. Throughout the year we receive a large number of requests from nonprofit organizations striving to make a positive impact, and we are thankful to be able to provide support to a variety of organizations and causes. While we would like to respond favorably to all requests, understandably, the needs are far greater than our allocated resources and we are unable to accommodate them all.</t>
+  </si>
+  <si>
+    <t>Helping to improve the lives of those we serve is who we are and what we do. You’ll find us in the community, in the classroom, and around the corner at a branch, delivering caring and friendly service.</t>
+  </si>
+  <si>
+    <t>9:00AM - 5:00PM</t>
+  </si>
+  <si>
+    <t>10:30AM - 8:00PM</t>
+  </si>
+  <si>
+    <t>9:30AM - 5:00PM</t>
+  </si>
+  <si>
+    <t>12:00AM - 12:00AM</t>
+  </si>
+  <si>
+    <t>8:30AM - 5:00PM</t>
+  </si>
+  <si>
+    <t>Rooted in Education is a 501(c)(3) nonprofit passionate about providing access to enriching educational opportunities and fresh food so that all children may share their talents and passions to inspire our communities. Through our grants and gardens we are able to hold space for every child's educational journey and then expand that support to include their physical nourishment, as well as that of the community to which they belong.</t>
+  </si>
+  <si>
+    <t>FullCircle26,Inc. is dedicated to schools, community groups and individuals seeking to provide year-long indoor food production on a local basis.</t>
+  </si>
+  <si>
+    <t>21398 Price Cascades Plaza, Sterling, VA 20164</t>
+  </si>
+  <si>
+    <t>21361 Gentry Dr, Sterling, VA 20166</t>
+  </si>
+  <si>
+    <t>409 Madison Ct SE, Leesburg, VA 20175</t>
+  </si>
+  <si>
+    <t>19798 Sycolin Rd, Leesburg, VA 20175</t>
+  </si>
+  <si>
+    <t>47100 Community Plaza, Sterling, VA 20164</t>
+  </si>
+  <si>
+    <t>11948 Fair Oaks Mall, Fairfax, VA 22033</t>
+  </si>
+  <si>
+    <t>46440 Benedict Dr #208, Sterling, VA 20164</t>
+  </si>
+  <si>
+    <t>21630 Ridgetop Cir #130, Sterling, VA 20166</t>
+  </si>
+  <si>
+    <t>750 Miller Dr SE, Leesburg, VA, United States</t>
+  </si>
+  <si>
+    <t>20908 Ashburn Road, Ashburn, VA 20147, United States of America</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Latitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,23 +312,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF993366"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -256,18 +369,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08265865-87B3-A141-B92B-A5F35EC84153}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,20 +726,26 @@
     <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="94" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
     <col min="6" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
       <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>42</v>
@@ -614,159 +754,271 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
+        <v>39.023605799999999</v>
+      </c>
+      <c r="E2">
         <v>-77.400994999999995</v>
       </c>
-      <c r="E2">
-        <v>39.023605799999999</v>
+      <c r="F2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
+        <v>39.024802000000001</v>
+      </c>
+      <c r="E3">
         <v>-77.405699999999996</v>
       </c>
-      <c r="E3">
-        <v>39.024802000000001</v>
+      <c r="F3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
+        <v>39.110369400000003</v>
+      </c>
+      <c r="E4">
         <v>-77.565443999999999</v>
       </c>
-      <c r="E4">
-        <v>39.110369400000003</v>
+      <c r="F4" s="11"/>
+      <c r="G4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
+        <v>39.092599999999997</v>
+      </c>
+      <c r="E5">
         <v>-77.553653999999995</v>
       </c>
-      <c r="E5">
-        <v>39.092599999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
+        <v>39.015830999999999</v>
+      </c>
+      <c r="E6">
         <v>-77.375861999999998</v>
       </c>
-      <c r="E6">
-        <v>39.015830999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
+        <v>38.865062399999999</v>
+      </c>
+      <c r="E7">
         <v>-77.358749000000003</v>
       </c>
-      <c r="E7">
-        <v>38.865062399999999</v>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
-        <v>-77.223588000000007</v>
+        <v>39.024825700000001</v>
       </c>
       <c r="E8">
-        <v>38.869287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-77.3927944</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
+        <v>39.027190400000002</v>
+      </c>
+      <c r="E9">
         <v>-77.408413999999993</v>
       </c>
-      <c r="E9">
-        <v>39.027190400000002</v>
+      <c r="F9" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
+        <v>39.0403175</v>
+      </c>
+      <c r="E10">
         <v>-77.486816000000005</v>
       </c>
-      <c r="E10">
-        <v>39.0403175</v>
+      <c r="F10" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
+        <v>39.081523900000001</v>
+      </c>
+      <c r="E11">
         <v>-77.555297999999993</v>
       </c>
-      <c r="E11">
-        <v>39.081523900000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
+        <v>39.013576499999999</v>
+      </c>
+      <c r="E12" s="2">
         <v>-77.384056000000001</v>
       </c>
-      <c r="E12" s="3">
-        <v>39.013576499999999</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
+        <v>38.955991699999998</v>
+      </c>
+      <c r="E13" s="2">
         <v>-77.368133999999998</v>
       </c>
-      <c r="E13" s="3">
-        <v>38.955991699999998</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -777,85 +1029,85 @@
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
+        <v>38.9531086</v>
+      </c>
+      <c r="E14" s="2">
         <v>-77.346993999999995</v>
       </c>
-      <c r="E14" s="3">
-        <v>38.9531086</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
+        <v>39.0611465</v>
+      </c>
+      <c r="E15" s="2">
         <v>-77.552453999999997</v>
       </c>
-      <c r="E15" s="3">
-        <v>39.0611465</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
+        <v>38.925209099999996</v>
+      </c>
+      <c r="E16" s="2">
         <v>-77.520797999999999</v>
       </c>
-      <c r="E16" s="3">
-        <v>38.925209099999996</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
+        <v>38.847721700000001</v>
+      </c>
+      <c r="E17" s="2">
         <v>-77.310794000000001</v>
       </c>
-      <c r="E17" s="3">
-        <v>38.847721700000001</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -866,19 +1118,19 @@
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
+        <v>39.065376299999997</v>
+      </c>
+      <c r="E18" s="2">
         <v>-77.149856999999997</v>
       </c>
-      <c r="E18" s="3">
-        <v>39.065376299999997</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -887,80 +1139,207 @@
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>38.9978257</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-77.406756999999999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3">
-        <v>-77.406756999999999</v>
-      </c>
-      <c r="E19" s="3">
-        <v>38.9978257</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="B23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
+      <c r="B24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shinyapp/data/Sterling_Youth_Development.xlsx
+++ b/shinyapp/data/Sterling_Youth_Development.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayosborne/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayosborne/Downloads/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AA32FE-84A9-094C-82D4-7444E38124D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB54EA-9131-C646-A0FB-1F1262F68971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0612B967-1994-9F41-A7BC-753ACB378C0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{0612B967-1994-9F41-A7BC-753ACB378C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -595,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08265865-87B3-A141-B92B-A5F35EC84153}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G12" sqref="G12:G19"/>
     </sheetView>
   </sheetViews>

--- a/shinyapp/data/Sterling_Youth_Development.xlsx
+++ b/shinyapp/data/Sterling_Youth_Development.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayosborne/Downloads/2022_DSPG_Loudoun/shinyapp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayosborne/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB54EA-9131-C646-A0FB-1F1262F68971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AA32FE-84A9-094C-82D4-7444E38124D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{0612B967-1994-9F41-A7BC-753ACB378C0D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0612B967-1994-9F41-A7BC-753ACB378C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -596,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08265865-87B3-A141-B92B-A5F35EC84153}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G12" sqref="G12:G19"/>
     </sheetView>
   </sheetViews>
